--- a/tests/artifact/script/UI-StockOnHand.xlsx
+++ b/tests/artifact/script/UI-StockOnHand.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1095">
   <si>
     <t>target</t>
   </si>
@@ -3310,6 +3310,12 @@
   </si>
   <si>
     <t>${Balance}.00</t>
+  </si>
+  <si>
+    <t>Save the Final Stock Value</t>
+  </si>
+  <si>
+    <t>FinalStockValue1</t>
   </si>
   <si>
     <t>Create Service with Random Name</t>
@@ -10500,12 +10506,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O371"/>
+  <dimension ref="A1:O372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E289" sqref="E289"/>
+      <selection pane="bottomLeft" activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11697,7 +11703,7 @@
       <c r="N45" s="58"/>
       <c r="O45" s="48"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:15">
+    <row r="46" s="5" customFormat="1" ht="15.5" spans="1:15">
       <c r="A46" s="32" t="s">
         <v>846</v>
       </c>
@@ -12303,7 +12309,7 @@
       <c r="I72" s="40"/>
       <c r="J72" s="57"/>
     </row>
-    <row r="73" customFormat="1" spans="1:10">
+    <row r="73" customFormat="1" ht="15.5" spans="1:10">
       <c r="A73" s="32"/>
       <c r="B73" s="45" t="s">
         <v>905</v>
@@ -13340,7 +13346,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="16"/>
     </row>
-    <row r="118" customFormat="1" spans="1:15">
+    <row r="118" customFormat="1" ht="15.5" spans="1:15">
       <c r="A118" s="11"/>
       <c r="B118" s="12" t="s">
         <v>947</v>
@@ -15104,7 +15110,7 @@
       <c r="N191" s="17"/>
       <c r="O191" s="16"/>
     </row>
-    <row r="192" customFormat="1" spans="1:15">
+    <row r="192" customFormat="1" ht="15.5" spans="1:15">
       <c r="A192" s="11"/>
       <c r="B192" s="12" t="s">
         <v>947</v>
@@ -15154,7 +15160,7 @@
       <c r="N193" s="58"/>
       <c r="O193" s="48"/>
     </row>
-    <row r="194" customFormat="1" spans="1:15">
+    <row r="194" customFormat="1" ht="15.5" spans="1:15">
       <c r="A194" s="11" t="s">
         <v>1007</v>
       </c>
@@ -15988,7 +15994,7 @@
       <c r="N225" s="17"/>
       <c r="O225" s="16"/>
     </row>
-    <row r="226" customFormat="1" spans="1:15">
+    <row r="226" customFormat="1" ht="15.5" spans="1:15">
       <c r="A226" s="11"/>
       <c r="B226" s="12"/>
       <c r="C226" s="13" t="s">
@@ -16629,7 +16635,7 @@
       <c r="N249" s="17"/>
       <c r="O249" s="16"/>
     </row>
-    <row r="250" customFormat="1" spans="1:15">
+    <row r="250" customFormat="1" ht="15.5" spans="1:15">
       <c r="A250" s="11"/>
       <c r="B250" s="12" t="s">
         <v>947</v>
@@ -16679,7 +16685,7 @@
       <c r="N251" s="58"/>
       <c r="O251" s="48"/>
     </row>
-    <row r="252" customFormat="1" spans="1:10">
+    <row r="252" customFormat="1" ht="15.5" spans="1:10">
       <c r="A252" s="32" t="s">
         <v>1025</v>
       </c>
@@ -16701,7 +16707,7 @@
       <c r="I252" s="40"/>
       <c r="J252" s="57"/>
     </row>
-    <row r="253" customFormat="1" spans="1:10">
+    <row r="253" customFormat="1" ht="15.5" spans="1:10">
       <c r="A253" s="32"/>
       <c r="B253" s="27" t="s">
         <v>761</v>
@@ -16721,7 +16727,7 @@
       <c r="I253" s="40"/>
       <c r="J253" s="57"/>
     </row>
-    <row r="254" customFormat="1" spans="1:10">
+    <row r="254" customFormat="1" ht="15.5" spans="1:10">
       <c r="A254" s="32"/>
       <c r="B254" s="27" t="s">
         <v>763</v>
@@ -16817,7 +16823,7 @@
       <c r="N257" s="58"/>
       <c r="O257" s="48"/>
     </row>
-    <row r="258" customFormat="1" spans="1:10">
+    <row r="258" customFormat="1" ht="15.5" spans="1:10">
       <c r="A258" s="32"/>
       <c r="B258" s="27" t="s">
         <v>761</v>
@@ -17703,7 +17709,7 @@
       <c r="N291" s="58"/>
       <c r="O291" s="48"/>
     </row>
-    <row r="292" customFormat="1" spans="1:15">
+    <row r="292" customFormat="1" ht="15.5" spans="1:15">
       <c r="A292" s="32"/>
       <c r="B292" s="27" t="s">
         <v>761</v>
@@ -17728,7 +17734,7 @@
       <c r="N292" s="58"/>
       <c r="O292" s="48"/>
     </row>
-    <row r="293" customFormat="1" spans="1:15">
+    <row r="293" customFormat="1" ht="15.5" spans="1:15">
       <c r="A293" s="32"/>
       <c r="B293" s="27" t="s">
         <v>763</v>
@@ -17753,7 +17759,7 @@
       <c r="N293" s="58"/>
       <c r="O293" s="48"/>
     </row>
-    <row r="294" customFormat="1" spans="1:15">
+    <row r="294" customFormat="1" ht="15.5" spans="1:15">
       <c r="A294" s="32"/>
       <c r="B294" s="27" t="s">
         <v>765</v>
@@ -17778,7 +17784,7 @@
       <c r="N294" s="58"/>
       <c r="O294" s="48"/>
     </row>
-    <row r="295" customFormat="1" spans="1:15">
+    <row r="295" customFormat="1" ht="15.5" spans="1:15">
       <c r="A295" s="32"/>
       <c r="B295" s="27" t="s">
         <v>761</v>
@@ -17861,7 +17867,7 @@
       <c r="N297" s="17"/>
       <c r="O297" s="16"/>
     </row>
-    <row r="298" customFormat="1" spans="1:15">
+    <row r="298" customFormat="1" ht="15.5" spans="1:15">
       <c r="A298" s="11"/>
       <c r="B298" s="12" t="s">
         <v>915</v>
@@ -17888,7 +17894,7 @@
       <c r="N298" s="17"/>
       <c r="O298" s="16"/>
     </row>
-    <row r="299" customFormat="1" spans="1:15">
+    <row r="299" customFormat="1" ht="15.5" spans="1:15">
       <c r="A299" s="11"/>
       <c r="B299" s="12" t="s">
         <v>917</v>
@@ -17915,7 +17921,7 @@
       <c r="N299" s="17"/>
       <c r="O299" s="16"/>
     </row>
-    <row r="300" customFormat="1" spans="1:15">
+    <row r="300" customFormat="1" ht="15.5" spans="1:15">
       <c r="A300" s="11"/>
       <c r="B300" s="12" t="s">
         <v>919</v>
@@ -17946,7 +17952,7 @@
       <c r="N300" s="17"/>
       <c r="O300" s="16"/>
     </row>
-    <row r="301" customFormat="1" spans="1:15">
+    <row r="301" customFormat="1" ht="15.5" spans="1:15">
       <c r="A301" s="11"/>
       <c r="B301" s="12" t="s">
         <v>922</v>
@@ -17973,7 +17979,7 @@
       <c r="N301" s="17"/>
       <c r="O301" s="16"/>
     </row>
-    <row r="302" s="4" customFormat="1" spans="1:15">
+    <row r="302" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A302" s="32"/>
       <c r="B302" s="33" t="s">
         <v>924</v>
@@ -18014,7 +18020,6 @@
       <c r="E303" s="35" t="s">
         <v>850</v>
       </c>
-      <c r="F303" s="4"/>
       <c r="G303" s="35"/>
       <c r="H303" s="35"/>
       <c r="I303" s="35"/>
@@ -18025,7 +18030,7 @@
       <c r="N303" s="30"/>
       <c r="O303" s="29"/>
     </row>
-    <row r="304" s="4" customFormat="1" spans="1:15">
+    <row r="304" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A304" s="32"/>
       <c r="B304" s="33" t="s">
         <v>927</v>
@@ -18079,7 +18084,7 @@
       <c r="N305" s="17"/>
       <c r="O305" s="16"/>
     </row>
-    <row r="306" customFormat="1" spans="1:15">
+    <row r="306" customFormat="1" ht="15.5" spans="1:15">
       <c r="A306" s="11"/>
       <c r="B306" s="12" t="s">
         <v>932</v>
@@ -18104,7 +18109,7 @@
       <c r="N306" s="17"/>
       <c r="O306" s="16"/>
     </row>
-    <row r="307" customFormat="1" spans="1:15">
+    <row r="307" customFormat="1" ht="15.5" spans="1:15">
       <c r="A307" s="11"/>
       <c r="B307" s="12" t="s">
         <v>934</v>
@@ -18294,16 +18299,16 @@
     <row r="314" s="10" customFormat="1" spans="1:15">
       <c r="A314" s="73"/>
       <c r="B314" s="74" t="s">
-        <v>944</v>
+        <v>1078</v>
       </c>
       <c r="C314" s="75" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D314" s="76" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="E314" s="77" t="s">
-        <v>945</v>
+        <v>1079</v>
       </c>
       <c r="F314" s="76" t="s">
         <v>807</v>
@@ -18318,48 +18323,50 @@
       <c r="N314" s="84"/>
       <c r="O314" s="83"/>
     </row>
-    <row r="315" customFormat="1" spans="1:15">
-      <c r="A315" s="11"/>
-      <c r="B315" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D315" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="E315" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="F315" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="G315" s="14"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="14"/>
-      <c r="J315" s="15"/>
-      <c r="K315" s="16"/>
-      <c r="L315" s="17"/>
-      <c r="M315" s="18"/>
-      <c r="N315" s="17"/>
-      <c r="O315" s="16"/>
-    </row>
-    <row r="316" customFormat="1" spans="1:15">
+    <row r="315" s="10" customFormat="1" spans="1:15">
+      <c r="A315" s="73"/>
+      <c r="B315" s="74" t="s">
+        <v>944</v>
+      </c>
+      <c r="C315" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="E315" s="77" t="s">
+        <v>945</v>
+      </c>
+      <c r="F315" s="76" t="s">
+        <v>807</v>
+      </c>
+      <c r="G315" s="77"/>
+      <c r="H315" s="77"/>
+      <c r="I315" s="77"/>
+      <c r="J315" s="82"/>
+      <c r="K315" s="83"/>
+      <c r="L315" s="84"/>
+      <c r="M315" s="85"/>
+      <c r="N315" s="84"/>
+      <c r="O315" s="83"/>
+    </row>
+    <row r="316" customFormat="1" ht="15.5" spans="1:15">
       <c r="A316" s="11"/>
       <c r="B316" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E316" s="14" t="s">
-        <v>948</v>
-      </c>
-      <c r="F316" s="14"/>
+        <v>935</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>762</v>
+      </c>
       <c r="G316" s="14"/>
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
@@ -18370,19 +18377,21 @@
       <c r="N316" s="17"/>
       <c r="O316" s="16"/>
     </row>
-    <row r="317" customFormat="1" spans="1:15">
+    <row r="317" customFormat="1" ht="15.5" spans="1:15">
       <c r="A317" s="11"/>
       <c r="B317" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="C317" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D317" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="E317" s="14"/>
-      <c r="F317" s="64"/>
+        <v>947</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D317" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="F317" s="14"/>
       <c r="G317" s="14"/>
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
@@ -18396,20 +18405,16 @@
     <row r="318" customFormat="1" ht="15.5" spans="1:15">
       <c r="A318" s="11"/>
       <c r="B318" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D318" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="E318" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>782</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="C318" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D318" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="E318" s="14"/>
+      <c r="F318" s="64"/>
       <c r="G318" s="14"/>
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
@@ -18423,26 +18428,22 @@
     <row r="319" customFormat="1" ht="15.5" spans="1:15">
       <c r="A319" s="11"/>
       <c r="B319" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
       <c r="E319" s="14" t="s">
-        <v>913</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="G319" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="F319" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="H319" s="14" t="s">
-        <v>914</v>
-      </c>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
       <c r="I319" s="14"/>
       <c r="J319" s="15"/>
       <c r="K319" s="16"/>
@@ -18451,25 +18452,29 @@
       <c r="N319" s="17"/>
       <c r="O319" s="16"/>
     </row>
-    <row r="320" customFormat="1" spans="1:15">
+    <row r="320" customFormat="1" ht="15.5" spans="1:15">
       <c r="A320" s="11"/>
       <c r="B320" s="12" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E320" s="14" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="G320" s="14"/>
-      <c r="H320" s="14"/>
+        <v>838</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="H320" s="14" t="s">
+        <v>914</v>
+      </c>
       <c r="I320" s="14"/>
       <c r="J320" s="15"/>
       <c r="K320" s="16"/>
@@ -18478,22 +18483,22 @@
       <c r="N320" s="17"/>
       <c r="O320" s="16"/>
     </row>
-    <row r="321" customFormat="1" spans="1:15">
+    <row r="321" customFormat="1" ht="15.5" spans="1:15">
       <c r="A321" s="11"/>
       <c r="B321" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E321" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="F321" s="43" t="s">
-        <v>882</v>
+        <v>916</v>
+      </c>
+      <c r="F321" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="G321" s="14"/>
       <c r="H321" s="14"/>
@@ -18505,29 +18510,25 @@
       <c r="N321" s="17"/>
       <c r="O321" s="16"/>
     </row>
-    <row r="322" customFormat="1" spans="1:15">
+    <row r="322" customFormat="1" ht="15.5" spans="1:15">
       <c r="A322" s="11"/>
       <c r="B322" s="12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
       <c r="E322" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="F322" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="G322" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="F322" s="43" t="s">
         <v>882</v>
       </c>
-      <c r="H322" s="14" t="s">
-        <v>921</v>
-      </c>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
       <c r="I322" s="14"/>
       <c r="J322" s="15"/>
       <c r="K322" s="16"/>
@@ -18536,25 +18537,29 @@
       <c r="N322" s="17"/>
       <c r="O322" s="16"/>
     </row>
-    <row r="323" customFormat="1" spans="1:15">
+    <row r="323" customFormat="1" ht="15.5" spans="1:15">
       <c r="A323" s="11"/>
       <c r="B323" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E323" s="14" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="G323" s="14"/>
-      <c r="H323" s="14"/>
+        <v>838</v>
+      </c>
+      <c r="G323" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="H323" s="14" t="s">
+        <v>921</v>
+      </c>
       <c r="I323" s="14"/>
       <c r="J323" s="15"/>
       <c r="K323" s="16"/>
@@ -18563,48 +18568,50 @@
       <c r="N323" s="17"/>
       <c r="O323" s="16"/>
     </row>
-    <row r="324" s="4" customFormat="1" spans="1:15">
-      <c r="A324" s="32"/>
-      <c r="B324" s="33" t="s">
-        <v>924</v>
-      </c>
-      <c r="C324" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D324" s="35" t="s">
-        <v>706</v>
+    <row r="324" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A324" s="11"/>
+      <c r="B324" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" s="14" t="s">
+        <v>576</v>
       </c>
       <c r="E324" s="14" t="s">
-        <v>925</v>
-      </c>
-      <c r="F324" s="62" t="s">
-        <v>926</v>
-      </c>
-      <c r="G324" s="35"/>
-      <c r="H324" s="35"/>
-      <c r="I324" s="35"/>
-      <c r="J324" s="56"/>
-      <c r="K324" s="29"/>
-      <c r="L324" s="30"/>
-      <c r="M324" s="28"/>
-      <c r="N324" s="30"/>
-      <c r="O324" s="29"/>
+        <v>923</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="15"/>
+      <c r="K324" s="16"/>
+      <c r="L324" s="17"/>
+      <c r="M324" s="18"/>
+      <c r="N324" s="17"/>
+      <c r="O324" s="16"/>
     </row>
     <row r="325" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A325" s="32"/>
       <c r="B325" s="33" t="s">
-        <v>761</v>
+        <v>924</v>
       </c>
       <c r="C325" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D325" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="E325" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="F325" s="4"/>
+        <v>706</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F325" s="62" t="s">
+        <v>926</v>
+      </c>
       <c r="G325" s="35"/>
       <c r="H325" s="35"/>
       <c r="I325" s="35"/>
@@ -18615,22 +18622,19 @@
       <c r="N325" s="30"/>
       <c r="O325" s="29"/>
     </row>
-    <row r="326" s="4" customFormat="1" spans="1:15">
+    <row r="326" s="4" customFormat="1" ht="15.5" spans="1:15">
       <c r="A326" s="32"/>
       <c r="B326" s="33" t="s">
-        <v>927</v>
+        <v>761</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D326" s="35" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="E326" s="35" t="s">
-        <v>928</v>
-      </c>
-      <c r="F326" s="62" t="s">
-        <v>929</v>
+        <v>850</v>
       </c>
       <c r="G326" s="35"/>
       <c r="H326" s="35"/>
@@ -18642,48 +18646,50 @@
       <c r="N326" s="30"/>
       <c r="O326" s="29"/>
     </row>
-    <row r="327" customFormat="1" ht="16.75" spans="1:15">
-      <c r="A327" s="11"/>
-      <c r="B327" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D327" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="E327" s="14" t="s">
-        <v>925</v>
-      </c>
-      <c r="F327" s="63" t="s">
-        <v>931</v>
-      </c>
-      <c r="G327" s="14"/>
-      <c r="H327" s="14"/>
-      <c r="I327" s="14"/>
-      <c r="J327" s="15"/>
-      <c r="K327" s="16"/>
-      <c r="L327" s="17"/>
-      <c r="M327" s="18"/>
-      <c r="N327" s="17"/>
-      <c r="O327" s="16"/>
-    </row>
-    <row r="328" customFormat="1" spans="1:15">
+    <row r="327" s="4" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A327" s="32"/>
+      <c r="B327" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C327" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="E327" s="35" t="s">
+        <v>928</v>
+      </c>
+      <c r="F327" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="G327" s="35"/>
+      <c r="H327" s="35"/>
+      <c r="I327" s="35"/>
+      <c r="J327" s="56"/>
+      <c r="K327" s="29"/>
+      <c r="L327" s="30"/>
+      <c r="M327" s="28"/>
+      <c r="N327" s="30"/>
+      <c r="O327" s="29"/>
+    </row>
+    <row r="328" customFormat="1" ht="16.75" spans="1:15">
       <c r="A328" s="11"/>
       <c r="B328" s="12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E328" s="14" t="s">
-        <v>933</v>
-      </c>
-      <c r="F328" s="14"/>
+        <v>925</v>
+      </c>
+      <c r="F328" s="63" t="s">
+        <v>931</v>
+      </c>
       <c r="G328" s="14"/>
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
@@ -18694,19 +18700,19 @@
       <c r="N328" s="17"/>
       <c r="O328" s="16"/>
     </row>
-    <row r="329" customFormat="1" spans="1:15">
+    <row r="329" customFormat="1" ht="15.5" spans="1:15">
       <c r="A329" s="11"/>
       <c r="B329" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E329" s="14" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F329" s="14"/>
       <c r="G329" s="14"/>
@@ -18722,20 +18728,18 @@
     <row r="330" customFormat="1" ht="15.5" spans="1:15">
       <c r="A330" s="11"/>
       <c r="B330" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D330" s="35" t="s">
-        <v>530</v>
+      <c r="D330" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E330" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="F330" s="4" t="s">
-        <v>782</v>
-      </c>
+      <c r="F330" s="14"/>
       <c r="G330" s="14"/>
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
@@ -18746,10 +18750,10 @@
       <c r="N330" s="17"/>
       <c r="O330" s="16"/>
     </row>
-    <row r="331" customFormat="1" spans="1:15">
+    <row r="331" customFormat="1" ht="15.5" spans="1:15">
       <c r="A331" s="11"/>
       <c r="B331" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>30</v>
@@ -18758,10 +18762,10 @@
         <v>530</v>
       </c>
       <c r="E331" s="14" t="s">
-        <v>938</v>
-      </c>
-      <c r="F331" s="43" t="s">
-        <v>1024</v>
+        <v>935</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>782</v>
       </c>
       <c r="G331" s="14"/>
       <c r="H331" s="14"/>
@@ -18773,10 +18777,10 @@
       <c r="N331" s="17"/>
       <c r="O331" s="16"/>
     </row>
-    <row r="332" customFormat="1" spans="1:15">
+    <row r="332" customFormat="1" ht="15.5" spans="1:15">
       <c r="A332" s="11"/>
       <c r="B332" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>30</v>
@@ -18785,10 +18789,10 @@
         <v>530</v>
       </c>
       <c r="E332" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="F332" s="14" t="s">
-        <v>941</v>
+        <v>938</v>
+      </c>
+      <c r="F332" s="43" t="s">
+        <v>1024</v>
       </c>
       <c r="G332" s="14"/>
       <c r="H332" s="14"/>
@@ -18800,10 +18804,10 @@
       <c r="N332" s="17"/>
       <c r="O332" s="16"/>
     </row>
-    <row r="333" customFormat="1" spans="1:15">
+    <row r="333" customFormat="1" ht="15.5" spans="1:15">
       <c r="A333" s="11"/>
       <c r="B333" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>30</v>
@@ -18812,10 +18816,10 @@
         <v>530</v>
       </c>
       <c r="E333" s="14" t="s">
-        <v>943</v>
-      </c>
-      <c r="F333" s="43" t="s">
-        <v>1024</v>
+        <v>940</v>
+      </c>
+      <c r="F333" s="14" t="s">
+        <v>941</v>
       </c>
       <c r="G333" s="14"/>
       <c r="H333" s="14"/>
@@ -18827,75 +18831,77 @@
       <c r="N333" s="17"/>
       <c r="O333" s="16"/>
     </row>
-    <row r="334" s="9" customFormat="1" spans="1:15">
-      <c r="A334" s="78"/>
-      <c r="B334" s="79" t="s">
+    <row r="334" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A334" s="11"/>
+      <c r="B334" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D334" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E334" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="F334" s="43" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G334" s="14"/>
+      <c r="H334" s="14"/>
+      <c r="I334" s="14"/>
+      <c r="J334" s="15"/>
+      <c r="K334" s="16"/>
+      <c r="L334" s="17"/>
+      <c r="M334" s="18"/>
+      <c r="N334" s="17"/>
+      <c r="O334" s="16"/>
+    </row>
+    <row r="335" s="9" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A335" s="78"/>
+      <c r="B335" s="79" t="s">
         <v>944</v>
       </c>
-      <c r="C334" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D334" s="43" t="s">
+      <c r="C335" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D335" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="E334" s="81" t="s">
+      <c r="E335" s="81" t="s">
         <v>945</v>
       </c>
-      <c r="F334" s="43" t="s">
+      <c r="F335" s="43" t="s">
         <v>888</v>
       </c>
-      <c r="G334" s="81"/>
-      <c r="H334" s="81"/>
-      <c r="I334" s="81"/>
-      <c r="J334" s="86"/>
-      <c r="K334" s="87"/>
-      <c r="L334" s="88"/>
-      <c r="M334" s="89"/>
-      <c r="N334" s="88"/>
-      <c r="O334" s="87"/>
-    </row>
-    <row r="335" customFormat="1" spans="1:15">
-      <c r="A335" s="11"/>
-      <c r="B335" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D335" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="E335" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="F335" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="G335" s="14"/>
-      <c r="H335" s="14"/>
-      <c r="I335" s="14"/>
-      <c r="J335" s="15"/>
-      <c r="K335" s="16"/>
-      <c r="L335" s="17"/>
-      <c r="M335" s="18"/>
-      <c r="N335" s="17"/>
-      <c r="O335" s="16"/>
-    </row>
-    <row r="336" customFormat="1" spans="1:15">
+      <c r="G335" s="81"/>
+      <c r="H335" s="81"/>
+      <c r="I335" s="81"/>
+      <c r="J335" s="86"/>
+      <c r="K335" s="87"/>
+      <c r="L335" s="88"/>
+      <c r="M335" s="89"/>
+      <c r="N335" s="88"/>
+      <c r="O335" s="87"/>
+    </row>
+    <row r="336" customFormat="1" ht="15.5" spans="1:15">
       <c r="A336" s="11"/>
       <c r="B336" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>948</v>
-      </c>
-      <c r="F336" s="14"/>
+        <v>935</v>
+      </c>
+      <c r="F336" s="14" t="s">
+        <v>762</v>
+      </c>
       <c r="G336" s="14"/>
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
@@ -18906,66 +18912,71 @@
       <c r="N336" s="17"/>
       <c r="O336" s="16"/>
     </row>
-    <row r="337" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A337" s="32"/>
-      <c r="B337" s="27" t="s">
+    <row r="337" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A337" s="11"/>
+      <c r="B337" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="C337" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D337" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="F337" s="14"/>
+      <c r="G337" s="14"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="14"/>
+      <c r="J337" s="15"/>
+      <c r="K337" s="16"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="18"/>
+      <c r="N337" s="17"/>
+      <c r="O337" s="16"/>
+    </row>
+    <row r="338" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A338" s="32"/>
+      <c r="B338" s="27" t="s">
         <v>761</v>
       </c>
-      <c r="C337" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D337" s="40" t="s">
+      <c r="C338" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="E337" s="40" t="s">
+      <c r="E338" s="40" t="s">
         <v>762</v>
-      </c>
-      <c r="F337" s="40"/>
-      <c r="G337" s="40"/>
-      <c r="H337" s="40"/>
-      <c r="I337" s="40"/>
-      <c r="J337" s="57"/>
-      <c r="K337" s="48"/>
-      <c r="L337" s="58"/>
-      <c r="M337" s="59"/>
-      <c r="N337" s="58"/>
-      <c r="O337" s="48"/>
-    </row>
-    <row r="338" customFormat="1" spans="1:10">
-      <c r="A338" s="26" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B338" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="C338" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D338" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="E338" s="40" t="s">
-        <v>760</v>
       </c>
       <c r="F338" s="40"/>
       <c r="G338" s="40"/>
       <c r="H338" s="40"/>
       <c r="I338" s="40"/>
       <c r="J338" s="57"/>
+      <c r="K338" s="48"/>
+      <c r="L338" s="58"/>
+      <c r="M338" s="59"/>
+      <c r="N338" s="58"/>
+      <c r="O338" s="48"/>
     </row>
     <row r="339" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A339" s="32"/>
+      <c r="A339" s="26" t="s">
+        <v>1080</v>
+      </c>
       <c r="B339" s="27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C339" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D339" s="40" t="s">
-        <v>714</v>
+        <v>363</v>
       </c>
       <c r="E339" s="40" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F339" s="40"/>
       <c r="G339" s="40"/>
@@ -18976,16 +18987,16 @@
     <row r="340" customFormat="1" ht="15.5" spans="1:10">
       <c r="A340" s="32"/>
       <c r="B340" s="27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C340" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D340" s="40" t="s">
-        <v>363</v>
+        <v>714</v>
       </c>
       <c r="E340" s="40" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F340" s="40"/>
       <c r="G340" s="40"/>
@@ -18996,16 +19007,16 @@
     <row r="341" customFormat="1" ht="15.5" spans="1:10">
       <c r="A341" s="32"/>
       <c r="B341" s="27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C341" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D341" s="40" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E341" s="40" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F341" s="40"/>
       <c r="G341" s="40"/>
@@ -19016,16 +19027,16 @@
     <row r="342" customFormat="1" ht="15.5" spans="1:10">
       <c r="A342" s="32"/>
       <c r="B342" s="27" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C342" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D342" s="40" t="s">
-        <v>714</v>
+        <v>253</v>
       </c>
       <c r="E342" s="40" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F342" s="40"/>
       <c r="G342" s="40"/>
@@ -19033,60 +19044,60 @@
       <c r="I342" s="40"/>
       <c r="J342" s="57"/>
     </row>
-    <row r="343" customFormat="1" ht="15.5" spans="2:10">
+    <row r="343" customFormat="1" ht="15.5" spans="1:10">
+      <c r="A343" s="32"/>
       <c r="B343" s="27" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C343" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D343" s="40" t="s">
-        <v>576</v>
+        <v>714</v>
       </c>
       <c r="E343" s="40" t="s">
-        <v>769</v>
-      </c>
-      <c r="F343" s="40" t="s">
-        <v>770</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="F343" s="40"/>
       <c r="G343" s="40"/>
       <c r="H343" s="40"/>
       <c r="I343" s="40"/>
       <c r="J343" s="57"/>
     </row>
-    <row r="344" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A344" s="3"/>
+    <row r="344" customFormat="1" ht="15.5" spans="2:10">
       <c r="B344" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="C344" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D344" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="E344" s="40" t="s">
+        <v>769</v>
+      </c>
+      <c r="F344" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="G344" s="40"/>
+      <c r="H344" s="40"/>
+      <c r="I344" s="40"/>
+      <c r="J344" s="57"/>
+    </row>
+    <row r="345" customFormat="1" ht="15.5" spans="1:10">
+      <c r="A345" s="3"/>
+      <c r="B345" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="C344" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D344" s="35" t="s">
+      <c r="C345" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D345" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E344" s="35" t="s">
+      <c r="E345" s="35" t="s">
         <v>772</v>
-      </c>
-      <c r="F344" s="35"/>
-      <c r="G344" s="35"/>
-      <c r="H344" s="35"/>
-      <c r="I344" s="35"/>
-      <c r="J344" s="56"/>
-    </row>
-    <row r="345" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A345" s="26"/>
-      <c r="B345" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="C345" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D345" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="E345" s="35" t="s">
-        <v>1079</v>
       </c>
       <c r="F345" s="35"/>
       <c r="G345" s="35"/>
@@ -19096,19 +19107,19 @@
     </row>
     <row r="346" customFormat="1" ht="15.5" spans="1:10">
       <c r="A346" s="26"/>
-      <c r="B346" s="41" t="s">
-        <v>775</v>
-      </c>
-      <c r="C346" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D346" s="43" t="s">
-        <v>253</v>
+      <c r="B346" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="C346" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D346" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="E346" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F346" s="44"/>
+        <v>1081</v>
+      </c>
+      <c r="F346" s="35"/>
       <c r="G346" s="35"/>
       <c r="H346" s="35"/>
       <c r="I346" s="35"/>
@@ -19117,20 +19128,18 @@
     <row r="347" customFormat="1" ht="15.5" spans="1:10">
       <c r="A347" s="26"/>
       <c r="B347" s="41" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C347" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D347" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="E347" s="44" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F347" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E347" s="35" t="s">
         <v>1082</v>
       </c>
+      <c r="F347" s="44"/>
       <c r="G347" s="35"/>
       <c r="H347" s="35"/>
       <c r="I347" s="35"/>
@@ -19139,18 +19148,18 @@
     <row r="348" customFormat="1" ht="15.5" spans="1:10">
       <c r="A348" s="26"/>
       <c r="B348" s="41" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C348" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D348" s="43" t="s">
-        <v>706</v>
-      </c>
-      <c r="E348" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E348" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="F348" s="44" t="s">
+      <c r="F348" s="43" t="s">
         <v>1084</v>
       </c>
       <c r="G348" s="35"/>
@@ -19159,42 +19168,44 @@
       <c r="J348" s="56"/>
     </row>
     <row r="349" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A349" s="32"/>
-      <c r="B349" s="45" t="s">
-        <v>810</v>
-      </c>
-      <c r="C349" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D349" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="E349" s="40" t="s">
-        <v>813</v>
-      </c>
-      <c r="F349" s="40" t="s">
-        <v>812</v>
-      </c>
-      <c r="G349" s="40"/>
-      <c r="H349" s="40"/>
-      <c r="I349" s="40"/>
-      <c r="J349" s="57"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="41" t="s">
+        <v>780</v>
+      </c>
+      <c r="C349" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D349" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="E349" s="35" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F349" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G349" s="35"/>
+      <c r="H349" s="35"/>
+      <c r="I349" s="35"/>
+      <c r="J349" s="56"/>
     </row>
     <row r="350" customFormat="1" ht="15.5" spans="1:10">
       <c r="A350" s="32"/>
       <c r="B350" s="45" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C350" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D350" s="40" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E350" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="F350" s="40"/>
+        <v>813</v>
+      </c>
+      <c r="F350" s="40" t="s">
+        <v>812</v>
+      </c>
       <c r="G350" s="40"/>
       <c r="H350" s="40"/>
       <c r="I350" s="40"/>
@@ -19203,49 +19214,49 @@
     <row r="351" customFormat="1" ht="15.5" spans="1:10">
       <c r="A351" s="32"/>
       <c r="B351" s="45" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C351" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D351" s="40" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E351" s="40" t="s">
-        <v>817</v>
-      </c>
-      <c r="F351" s="40" t="s">
-        <v>818</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F351" s="40"/>
       <c r="G351" s="40"/>
       <c r="H351" s="40"/>
       <c r="I351" s="40"/>
       <c r="J351" s="57"/>
     </row>
-    <row r="352" customFormat="1" ht="28" spans="1:10">
+    <row r="352" customFormat="1" ht="15.5" spans="1:10">
       <c r="A352" s="32"/>
       <c r="B352" s="45" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C352" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D352" s="40" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E352" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="F352" s="40"/>
+        <v>817</v>
+      </c>
+      <c r="F352" s="40" t="s">
+        <v>818</v>
+      </c>
       <c r="G352" s="40"/>
       <c r="H352" s="40"/>
       <c r="I352" s="40"/>
       <c r="J352" s="57"/>
     </row>
-    <row r="353" customFormat="1" ht="15.5" spans="1:10">
+    <row r="353" customFormat="1" ht="28" spans="1:10">
       <c r="A353" s="32"/>
       <c r="B353" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C353" s="39" t="s">
         <v>30</v>
@@ -19254,7 +19265,7 @@
         <v>253</v>
       </c>
       <c r="E353" s="40" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F353" s="40"/>
       <c r="G353" s="40"/>
@@ -19262,10 +19273,10 @@
       <c r="I353" s="40"/>
       <c r="J353" s="57"/>
     </row>
-    <row r="354" customFormat="1" ht="28" spans="1:10">
+    <row r="354" customFormat="1" ht="15.5" spans="1:10">
       <c r="A354" s="32"/>
       <c r="B354" s="45" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C354" s="39" t="s">
         <v>30</v>
@@ -19274,7 +19285,7 @@
         <v>253</v>
       </c>
       <c r="E354" s="40" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F354" s="40"/>
       <c r="G354" s="40"/>
@@ -19282,10 +19293,10 @@
       <c r="I354" s="40"/>
       <c r="J354" s="57"/>
     </row>
-    <row r="355" customFormat="1" ht="15.5" spans="1:10">
+    <row r="355" customFormat="1" ht="28" spans="1:10">
       <c r="A355" s="32"/>
       <c r="B355" s="45" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C355" s="39" t="s">
         <v>30</v>
@@ -19294,7 +19305,7 @@
         <v>253</v>
       </c>
       <c r="E355" s="40" t="s">
-        <v>1085</v>
+        <v>824</v>
       </c>
       <c r="F355" s="40"/>
       <c r="G355" s="40"/>
@@ -19305,7 +19316,7 @@
     <row r="356" customFormat="1" ht="15.5" spans="1:10">
       <c r="A356" s="32"/>
       <c r="B356" s="45" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C356" s="39" t="s">
         <v>30</v>
@@ -19314,7 +19325,7 @@
         <v>253</v>
       </c>
       <c r="E356" s="40" t="s">
-        <v>828</v>
+        <v>1087</v>
       </c>
       <c r="F356" s="40"/>
       <c r="G356" s="40"/>
@@ -19324,19 +19335,19 @@
     </row>
     <row r="357" customFormat="1" ht="15.5" spans="1:10">
       <c r="A357" s="32"/>
-      <c r="B357" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="C357" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D357" s="35" t="s">
+      <c r="B357" s="45" t="s">
+        <v>827</v>
+      </c>
+      <c r="C357" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D357" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="E357" s="35" t="s">
-        <v>830</v>
-      </c>
-      <c r="F357" s="35"/>
+      <c r="E357" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="F357" s="40"/>
       <c r="G357" s="40"/>
       <c r="H357" s="40"/>
       <c r="I357" s="40"/>
@@ -19345,7 +19356,7 @@
     <row r="358" customFormat="1" ht="15.5" spans="1:10">
       <c r="A358" s="32"/>
       <c r="B358" s="27" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C358" s="34" t="s">
         <v>30</v>
@@ -19354,7 +19365,7 @@
         <v>253</v>
       </c>
       <c r="E358" s="35" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F358" s="35"/>
       <c r="G358" s="40"/>
@@ -19365,84 +19376,84 @@
     <row r="359" customFormat="1" ht="15.5" spans="1:10">
       <c r="A359" s="32"/>
       <c r="B359" s="27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C359" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D359" s="35" t="s">
-        <v>576</v>
-      </c>
-      <c r="E359" s="40" t="s">
-        <v>834</v>
-      </c>
-      <c r="F359" s="40" t="s">
-        <v>835</v>
-      </c>
-      <c r="G359" s="44"/>
+        <v>253</v>
+      </c>
+      <c r="E359" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="F359" s="35"/>
+      <c r="G359" s="40"/>
       <c r="H359" s="40"/>
       <c r="I359" s="40"/>
       <c r="J359" s="57"/>
     </row>
     <row r="360" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A360" s="4"/>
-      <c r="B360" s="4" t="s">
+      <c r="A360" s="32"/>
+      <c r="B360" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="C360" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D360" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="E360" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="F360" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="G360" s="44"/>
+      <c r="H360" s="40"/>
+      <c r="I360" s="40"/>
+      <c r="J360" s="57"/>
+    </row>
+    <row r="361" customFormat="1" ht="15.5" spans="1:10">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C360" s="34" t="s">
+      <c r="C361" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D360" s="35" t="s">
+      <c r="D361" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="E360" s="4" t="s">
+      <c r="E361" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="G361" s="44" t="s">
         <v>1086</v>
       </c>
-      <c r="F360" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="G360" s="44" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H360" s="4" t="s">
+      <c r="H361" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="I360" s="4"/>
-      <c r="J360" s="4"/>
-    </row>
-    <row r="361" customFormat="1" ht="15.5" spans="1:10">
-      <c r="A361" s="32"/>
-      <c r="B361" s="45" t="s">
-        <v>840</v>
-      </c>
-      <c r="C361" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D361" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="E361" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="F361" s="40"/>
-      <c r="G361" s="40"/>
-      <c r="H361" s="40"/>
-      <c r="I361" s="40"/>
-      <c r="J361" s="57"/>
+      <c r="I361" s="4"/>
+      <c r="J361" s="4"/>
     </row>
     <row r="362" customFormat="1" ht="15.5" spans="1:10">
       <c r="A362" s="32"/>
       <c r="B362" s="45" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C362" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D362" s="40" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E362" s="40" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F362" s="40"/>
       <c r="G362" s="40"/>
@@ -19450,19 +19461,19 @@
       <c r="I362" s="40"/>
       <c r="J362" s="57"/>
     </row>
-    <row r="363" customFormat="1" spans="1:10">
+    <row r="363" customFormat="1" ht="15.5" spans="1:10">
       <c r="A363" s="32"/>
       <c r="B363" s="45" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C363" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D363" s="40" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E363" s="40" t="s">
-        <v>1087</v>
+        <v>843</v>
       </c>
       <c r="F363" s="40"/>
       <c r="G363" s="40"/>
@@ -19470,46 +19481,39 @@
       <c r="I363" s="40"/>
       <c r="J363" s="57"/>
     </row>
-    <row r="364" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="364" customFormat="1" ht="15.5" spans="1:10">
       <c r="A364" s="32"/>
-      <c r="B364" s="27" t="s">
-        <v>761</v>
+      <c r="B364" s="45" t="s">
+        <v>844</v>
       </c>
       <c r="C364" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D364" s="40" t="s">
-        <v>714</v>
+        <v>253</v>
       </c>
       <c r="E364" s="40" t="s">
-        <v>762</v>
+        <v>1089</v>
       </c>
       <c r="F364" s="40"/>
       <c r="G364" s="40"/>
       <c r="H364" s="40"/>
       <c r="I364" s="40"/>
       <c r="J364" s="57"/>
-      <c r="K364" s="48"/>
-      <c r="L364" s="58"/>
-      <c r="M364" s="59"/>
-      <c r="N364" s="58"/>
-      <c r="O364" s="48"/>
-    </row>
-    <row r="365" customFormat="1" ht="28" spans="1:15">
-      <c r="A365" s="11" t="s">
-        <v>1088</v>
-      </c>
+    </row>
+    <row r="365" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A365" s="32"/>
       <c r="B365" s="27" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C365" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D365" s="40" t="s">
-        <v>363</v>
+        <v>714</v>
       </c>
       <c r="E365" s="40" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F365" s="40"/>
       <c r="G365" s="40"/>
@@ -19522,19 +19526,21 @@
       <c r="N365" s="58"/>
       <c r="O365" s="48"/>
     </row>
-    <row r="366" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A366" s="32"/>
+    <row r="366" customFormat="1" ht="28" spans="1:15">
+      <c r="A366" s="11" t="s">
+        <v>1090</v>
+      </c>
       <c r="B366" s="27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C366" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D366" s="40" t="s">
-        <v>714</v>
+        <v>363</v>
       </c>
       <c r="E366" s="40" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F366" s="40"/>
       <c r="G366" s="40"/>
@@ -19547,19 +19553,19 @@
       <c r="N366" s="58"/>
       <c r="O366" s="48"/>
     </row>
-    <row r="367" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="367" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A367" s="32"/>
       <c r="B367" s="27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C367" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D367" s="40" t="s">
-        <v>363</v>
+        <v>714</v>
       </c>
       <c r="E367" s="40" t="s">
-        <v>908</v>
+        <v>762</v>
       </c>
       <c r="F367" s="40"/>
       <c r="G367" s="40"/>
@@ -19575,16 +19581,16 @@
     <row r="368" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A368" s="32"/>
       <c r="B368" s="27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C368" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F368" s="40"/>
       <c r="G368" s="40"/>
@@ -19600,16 +19606,16 @@
     <row r="369" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A369" s="32"/>
       <c r="B369" s="27" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C369" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>714</v>
+        <v>253</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>762</v>
+        <v>909</v>
       </c>
       <c r="F369" s="40"/>
       <c r="G369" s="40"/>
@@ -19622,38 +19628,63 @@
       <c r="N369" s="58"/>
       <c r="O369" s="48"/>
     </row>
-    <row r="370" ht="15.5" spans="2:6">
-      <c r="B370" s="12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C370" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D370" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="E370" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="F370" s="44" t="s">
-        <v>1084</v>
-      </c>
+    <row r="370" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A370" s="32"/>
+      <c r="B370" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="C370" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D370" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="E370" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="F370" s="40"/>
+      <c r="G370" s="40"/>
+      <c r="H370" s="40"/>
+      <c r="I370" s="40"/>
+      <c r="J370" s="57"/>
+      <c r="K370" s="48"/>
+      <c r="L370" s="58"/>
+      <c r="M370" s="59"/>
+      <c r="N370" s="58"/>
+      <c r="O370" s="48"/>
     </row>
     <row r="371" ht="15.5" spans="2:6">
       <c r="B371" s="12" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C371" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D371" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="F371" s="44" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="372" ht="15.5" spans="2:6">
+      <c r="B372" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D372" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="E371" s="14" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F371" s="44" t="s">
-        <v>1092</v>
+      <c r="E372" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F372" s="44" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -20313,59 +20344,59 @@
       <formula>LEFT(N304,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N324">
+  <conditionalFormatting sqref="N325">
     <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N324,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N325,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N324,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N325,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N324,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N325">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N325,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N325,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N325,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N326">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N326,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N326,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N326,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N327">
     <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N326,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N327,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N326,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N327,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N326,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N327,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N337">
+  <conditionalFormatting sqref="N338">
     <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N337,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N338,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N337,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N338,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N337,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N338,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N364">
+  <conditionalFormatting sqref="N365">
     <cfRule type="beginsWith" dxfId="0" priority="223" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N364,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N365,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N364,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N365,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="225" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N364,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N365,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -20599,15 +20630,15 @@
       <formula>LEFT(N291,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N365:N369">
+  <conditionalFormatting sqref="N366:N370">
     <cfRule type="beginsWith" dxfId="0" priority="328" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N365,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N366,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="329" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N365,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N366,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="330" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N365,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N366,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:N40 N42:N44">
@@ -20633,10 +20664,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C21 C22 C23 C29 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C54 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C86 C87 C88 C99 C106 C107 C108 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C137 C138 C139 C140 C141 C142 C143 C144 C145 C147 C148 C149 C150 C151 C152 C153 C160 C161 C162 C173 C180 C181 C182 C193 C194 C195 C196 C197 C200 C201 C202 C205 C206 C207 C208 C209 C210 C217 C218 C219 C231 C238 C239 C240 C251 C252 C253 C254 C255 C258 C261 C264 C265 C266 C267 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C302 C303 C304 C317 C324 C325 C326 C337 C338 C339 C340 C341 C342 C343 C346 C347 C348 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C13:C14 C18:C20 C24:C25 C26:C28 C30:C37 C52:C53 C55:C56 C134:C136 C198:C199 C203:C204 C256:C257 C259:C260 C262:C263 C268:C269 C344:C345 C349:C356">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C16 C17 C21 C22 C23 C29 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C54 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C86 C87 C88 C99 C106 C107 C108 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C137 C138 C139 C140 C141 C142 C143 C144 C145 C147 C148 C149 C150 C151 C152 C153 C160 C161 C162 C173 C180 C181 C182 C193 C194 C195 C196 C197 C200 C201 C202 C205 C206 C207 C208 C209 C210 C217 C218 C219 C231 C238 C239 C240 C251 C252 C253 C254 C255 C258 C261 C264 C265 C266 C267 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C302 C303 C304 C318 C325 C326 C327 C338 C339 C340 C341 C342 C343 C344 C347 C348 C349 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C13:C14 C18:C20 C24:C25 C26:C28 C30:C37 C52:C53 C55:C56 C134:C136 C198:C199 C203:C204 C256:C257 C259:C260 C262:C263 C268:C269 C345:C346 C350:C357">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D21 D22 D23 D29 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D86 D87 D88 D92 D93 D94 D95 D96 D99 D106 D107 D108 D112 D113 D114 D115 D116 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D137 D138 D139 D140 D141 D145 D147 D148 D149 D150 D151 D152 D153 D160 D161 D162 D166 D167 D168 D169 D170 D173 D180 D181 D182 D186 D187 D188 D189 D190 D193 D194 D195 D196 D197 D200 D201 D202 D203 D204 D205 D206 D207 D208 D209 D210 D217 D218 D219 D223 D224 D225 D226 D227 D228 D231 D238 D239 D240 D244 D245 D246 D247 D248 D251 D252 D253 D254 D255 D258 D261 D262 D263 D264 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D302 D303 D304 D308 D309 D310 D311 D312 D313 D314 D317 D324 D325 D326 D330 D331 D332 D333 D334 D337 D338 D339 D340 D341 D342 D343 D346 D347 D348 D357 D358 D359 D360 D361 D362 D363 D364 D365 D366 D367 D368 D369 D13:D14 D18:D20 D24:D25 D26:D28 D30:D37 D52:D53 D134:D136 D142:D144 D198:D199 D256:D257 D259:D260 D344:D345 D349:D356">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D16 D17 D21 D22 D23 D29 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D86 D87 D88 D92 D93 D94 D95 D96 D99 D106 D107 D108 D112 D113 D114 D115 D116 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D137 D138 D139 D140 D141 D145 D147 D148 D149 D150 D151 D152 D153 D160 D161 D162 D166 D167 D168 D169 D170 D173 D180 D181 D182 D186 D187 D188 D189 D190 D193 D194 D195 D196 D197 D200 D201 D202 D203 D204 D205 D206 D207 D208 D209 D210 D217 D218 D219 D223 D224 D225 D226 D227 D228 D231 D238 D239 D240 D244 D245 D246 D247 D248 D251 D252 D253 D254 D255 D258 D261 D262 D263 D264 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D302 D303 D304 D308 D309 D310 D311 D312 D313 D314 D315 D318 D325 D326 D327 D331 D332 D333 D334 D335 D338 D339 D340 D341 D342 D343 D344 D347 D348 D349 D358 D359 D360 D361 D362 D363 D364 D365 D366 D367 D368 D369 D370 D13:D14 D18:D20 D24:D25 D26:D28 D30:D37 D52:D53 D134:D136 D142:D144 D198:D199 D256:D257 D259:D260 D345:D346 D350:D357">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
